--- a/medicine/Pharmacie/Désipramine/Désipramine.xlsx
+++ b/medicine/Pharmacie/Désipramine/Désipramine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9sipramine</t>
+          <t>Désipramine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La désipramine, ou déméthylimipramine, est un antidépresseur tricyclique (TCA). Elle inhibe la réabsorption de la noradrénaline et, dans une moindre mesure, de la sérotonine. Elle est utilisée en médication contre la dépression, mais n'est pas considérée comme un traitement de première ligne depuis l'introduction des antidépresseurs ISRS (inhibiteurs sélectifs de la recapture de la sérotonine).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9sipramine</t>
+          <t>Désipramine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La désipramine a été développée par Geigy; le composé est apparu pour la première fois dans la littérature en 1959 et a été breveté en 1962 [2]. Le médicament a été introduit pour la première fois dans la pratique clinique pour le traitement de la dépression en 1963 ou 1964 [3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La désipramine a été développée par Geigy; le composé est apparu pour la première fois dans la littérature en 1959 et a été breveté en 1962 . Le médicament a été introduit pour la première fois dans la pratique clinique pour le traitement de la dépression en 1963 ou 1964 .
 </t>
         </is>
       </c>
